--- a/NorthDakota/WaterAllocation/NDwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/NorthDakota/WaterAllocation/NDwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NorthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C82F3C-E3C7-4B99-BAF6-C1A5175F3018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7072AC98-3F2A-46D5-8902-11CB4A2ADEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -836,12 +836,6 @@
     <t>period_end</t>
   </si>
   <si>
-    <t>req_rate</t>
-  </si>
-  <si>
-    <t>req_acft</t>
-  </si>
-  <si>
     <t>date_issue</t>
   </si>
   <si>
@@ -939,6 +933,12 @@
   </si>
   <si>
     <t>WaDE Unspecified</t>
+  </si>
+  <si>
+    <t>app_acft</t>
+  </si>
+  <si>
+    <t>app_rate</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="79">
         <v>2</v>
@@ -2351,7 +2351,7 @@
         <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2499,7 +2499,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>38</v>
@@ -2531,7 +2531,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -2659,7 +2659,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -2689,7 +2689,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>38</v>
@@ -2721,7 +2721,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>38</v>
@@ -2753,7 +2753,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>38</v>
@@ -2885,7 +2885,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>38</v>
@@ -3308,7 +3308,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>38</v>
@@ -3468,7 +3468,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -3829,7 +3829,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F8" s="70"/>
       <c r="G8" s="71" t="s">
@@ -3857,7 +3857,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="70" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F9" s="70"/>
       <c r="G9" s="71"/>
@@ -3883,7 +3883,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="71" t="s">
@@ -3918,7 +3918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -4074,7 +4074,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>38</v>
@@ -4110,7 +4110,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H7" s="77"/>
       <c r="I7" s="70" t="s">
@@ -4390,7 +4390,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4402,7 +4402,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>38</v>
@@ -4412,10 +4412,10 @@
       </c>
       <c r="H17"/>
       <c r="I17" s="79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J17" s="60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4430,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>38</v>
@@ -4520,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>38</v>
@@ -4609,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B9" s="51" t="s">
         <v>34</v>
@@ -4867,7 +4867,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="47"/>
@@ -4889,7 +4889,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>38</v>
@@ -4921,7 +4921,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>38</v>
@@ -4985,7 +4985,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>38</v>
@@ -5055,7 +5055,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>38</v>
@@ -5279,7 +5279,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H22" s="36" t="s">
         <v>38</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="23" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="80" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B23" s="51" t="s">
         <v>69</v>
@@ -5311,7 +5311,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="71" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="H23" s="81" t="s">
         <v>38</v>
@@ -5343,7 +5343,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>38</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="32" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="80" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B32" s="51" t="s">
         <v>69</v>
@@ -5599,7 +5599,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="71" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="H32" s="81" t="s">
         <v>38</v>
@@ -5805,10 +5805,10 @@
     </row>
     <row r="39" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>18</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="44" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -5975,10 +5975,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B47" s="51" t="s">
         <v>105</v>
@@ -6099,7 +6099,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H48" s="36" t="s">
         <v>38</v>

--- a/NorthDakota/WaterAllocation/NDwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/NorthDakota/WaterAllocation/NDwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NorthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7072AC98-3F2A-46D5-8902-11CB4A2ADEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7D932-9D5F-440F-84A5-A3F6A31AC58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="301">
   <si>
     <t>Name</t>
   </si>
@@ -939,6 +939,9 @@
   </si>
   <si>
     <t>app_rate</t>
+  </si>
+  <si>
+    <t>For ND, we don't want water rights that are considered: Application In Processing, Cancelled, Deferred, Denied, Held In Abeyance, InActive, Pending Review Under Review, Void</t>
   </si>
 </sst>
 </file>
@@ -2304,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,6 +2360,11 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -4609,8 +4617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/NorthDakota/WaterAllocation/NDwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/NorthDakota/WaterAllocation/NDwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NorthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7D932-9D5F-440F-84A5-A3F6A31AC58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4CB1D1-0877-414B-A6BD-8A1083BA96BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -2307,7 +2307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2403,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
